--- a/biology/Microbiologie/Spathidiidae/Spathidiidae.xlsx
+++ b/biology/Microbiologie/Spathidiidae/Spathidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Spathidiidae sont une famille de Ciliés de la classe des Gymnostomatea et de l’ordre des Spathidiida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Spathidium, dérivé de spath, « spatule, épée à lame large », et de la désinence latine ium « relatif à », en référence à la forme en spatule de cet organisme.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Spathidiidae ont une forme allongée, arrondie en coupe transversale ; leur extrémité postérieure est angulaire, pointue ou arrondie. La région antérieure du corps se termine de manière caractéristique en une oblique variant entre transversale et longitudinale par rapport à l'axe principal du corps. Il y a toujours une crête apicale ciliée bordée de trichocystes. L'ouverture buccale est une fente située le long de la crête. La ciliation est uniforme sur les deux faces latérales en rangées longitudinales parallèles. Le macronoyau est très variable, souvent allongé, rubané ou moniliforme (en forme de collier). Il y a une unique vacuole contractile terminale. Leur nourriture se compose d'autres ciliés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Spathidiidae ont une forme allongée, arrondie en coupe transversale ; leur extrémité postérieure est angulaire, pointue ou arrondie. La région antérieure du corps se termine de manière caractéristique en une oblique variant entre transversale et longitudinale par rapport à l'axe principal du corps. Il y a toujours une crête apicale ciliée bordée de trichocystes. L'ouverture buccale est une fente située le long de la crête. La ciliation est uniforme sur les deux faces latérales en rangées longitudinales parallèles. Le macronoyau est très variable, souvent allongé, rubané ou moniliforme (en forme de collier). Il y a une unique vacuole contractile terminale. Leur nourriture se compose d'autres ciliés.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Spathidiidae sont omniprésents sur toute la surface du globe[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Spathidiidae sont omniprésents sur toute la surface du globe.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (28 décembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (28 décembre 2022) :
 Apertospathidium
 Apobryophyllum Foissner, 1998
 Apospathidium
@@ -627,7 +647,7 @@
 Semispathidium
 Spathidiella Kahl, 1930
 Spathidiosus Gajewskaja, 1933
-Spathidium Dujardin, 1841 - genre type[3]
+Spathidium Dujardin, 1841 - genre type
 Supraspathidium Foissner &amp; Didier, 1982
 Thysanomorpha Jankowski, 1967
 </t>
@@ -658,9 +678,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Spathidiidae Kahl in Doflein &amp; Reichenow, 1929[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Spathidiidae Kahl in Doflein &amp; Reichenow, 1929.
 </t>
         </is>
       </c>
